--- a/Inc.xlsx
+++ b/Inc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef87968f2d3f45a/Documents/VS CODE/k_safe_inc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef87968f2d3f45a/Documents/VS CODE/k_safe_labeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{C3D40763-D1D8-4D1D-96F9-982135B65D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFA5AE92-94CD-409B-AEEC-A78A0D5373D1}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{C3D40763-D1D8-4D1D-96F9-982135B65D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4480C95-922B-4595-AB52-070C4789B5B3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D20BA0DC-5B64-43AE-8A75-200E9CE49B4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>n</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>UB (2021)</t>
-  </si>
-  <si>
-    <t>UB (IncSAT)</t>
   </si>
   <si>
     <t>Span (2021)</t>
@@ -217,10 +214,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,7 +536,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,20 +562,18 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -600,9 +591,7 @@
       <c r="D2" s="2">
         <v>80</v>
       </c>
-      <c r="E2" s="2">
-        <v>34</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2">
         <v>49</v>
       </c>
@@ -610,10 +599,10 @@
         <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -631,9 +620,7 @@
       <c r="D3" s="2">
         <v>132</v>
       </c>
-      <c r="E3" s="2">
-        <v>54</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2">
         <v>79</v>
       </c>
@@ -641,10 +628,10 @@
         <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -662,9 +649,7 @@
       <c r="D4" s="2">
         <v>107</v>
       </c>
-      <c r="E4" s="2">
-        <v>83</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
         <v>85</v>
       </c>
@@ -672,10 +657,10 @@
         <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -693,9 +678,7 @@
       <c r="D5" s="2">
         <v>211</v>
       </c>
-      <c r="E5" s="2">
-        <v>63</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2">
         <v>90</v>
       </c>
@@ -703,10 +686,10 @@
         <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -722,11 +705,9 @@
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2">
-        <v>83</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2">
         <v>105</v>
       </c>
@@ -734,10 +715,10 @@
         <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -755,9 +736,7 @@
       <c r="D7" s="2">
         <v>119</v>
       </c>
-      <c r="E7" s="2">
-        <v>27</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2">
         <v>37</v>
       </c>
@@ -765,10 +744,10 @@
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -786,9 +765,7 @@
       <c r="D8" s="2">
         <v>128</v>
       </c>
-      <c r="E8" s="2">
-        <v>68</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2">
         <v>95</v>
       </c>
@@ -796,10 +773,10 @@
         <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -817,9 +794,7 @@
       <c r="D9" s="2">
         <v>193</v>
       </c>
-      <c r="E9" s="2">
-        <v>34</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2">
         <v>50</v>
       </c>
@@ -827,10 +802,10 @@
         <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -854,10 +829,10 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -881,10 +856,10 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -908,10 +883,10 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -935,10 +910,10 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -962,10 +937,10 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -989,10 +964,10 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1016,10 +991,10 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1046,7 +1021,7 @@
         <v>1920</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
